--- a/errorfiles/Fehler_VertragsDaten.xlsx
+++ b/errorfiles/Fehler_VertragsDaten.xlsx
@@ -1163,8 +1163,8 @@
   </sheetPr>
   <dimension ref="A1:M91"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="10:10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1380,40 +1380,40 @@
         <v>336.5</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="22" t="n">
+    <row r="12" s="21" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="24" t="n">
+      <c r="C12" s="14" t="n">
         <v>42968</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="27" t="n">
+      <c r="F12" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="17" t="n">
         <v>43724</v>
       </c>
-      <c r="H12" s="27" t="n">
-        <v>43951</v>
-      </c>
-      <c r="I12" s="28" t="n">
+      <c r="H12" s="17" t="n">
+        <v>44681</v>
+      </c>
+      <c r="I12" s="18" t="n">
         <v>97.75</v>
       </c>
-      <c r="J12" s="29" t="n">
+      <c r="J12" s="19" t="n">
         <v>140.25</v>
       </c>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="30" t="n">
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="20" t="n">
         <f aca="false">I12+J12+K12+L12</f>
         <v>238</v>
       </c>
